--- a/target/classes/api_v5.xlsx
+++ b/target/classes/api_v5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>wenhuijuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,19 @@
     <t/>
   </si>
   <si>
-    <t>[{"expectedResult":[{"count(1)":"1"}],"id":"1","result":"success"}]</t>
-  </si>
-  <si>
-    <t>[{"expectedResult":[{"count(1)":"1"}],"id":"2","result":"success"}]</t>
+    <t>[{"expectedResult":[{"count(1)":"1"}],"no":"2","result":"success"}]</t>
+  </si>
+  <si>
+    <t>[{"expectedResult":[{"count(1)":"1"}],"no":"1","result":"success"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+   "no":"1",
+   "sql":"select count(1)from sys_user where login_name='admin';",
+   "expectedResult":[{"count(1)":"1"}]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -571,11 +580,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="73.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="73.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,20 +662,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="10"/>
-    <col min="3" max="3" width="52" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23" style="10" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="10" collapsed="1"/>
+    <col min="3" max="3" width="52" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.21875" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.109375" style="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.33203125" style="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,16 +721,16 @@
         <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,13 +750,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -781,8 +790,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/target/classes/api_v5.xlsx
+++ b/target/classes/api_v5.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="apiInfo" sheetId="2" r:id="rId1"/>
-    <sheet name="requestData" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="apiInfo" r:id="rId1" sheetId="2"/>
+    <sheet name="requestData" r:id="rId2" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>wenhuijuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>additionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"admin","password":"123456a"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"123334","password":"112222"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"wenhuijuan","password":"yh601933"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{
    "no":"2",
    "sql":"select count(1)from sys_user where login_name='wenhuijuan';",
@@ -142,28 +130,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"username":"__getUserName()","password":"__md5(123456a)"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"__getUserName()","password":"__md5(yh601933)"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"__getUserName()","password":"__md5(112222)"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>[{"expectedResult":[{"count(1)":"1"}],"no":"1","result":"success"}]</t>
+  </si>
+  <si>
     <t>[{"expectedResult":[{"count(1)":"1"}],"no":"2","result":"success"}]</t>
-  </si>
-  <si>
-    <t>[{"expectedResult":[{"count(1)":"1"}],"no":"1","result":"success"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{
-   "no":"1",
-   "sql":"select count(1)from sys_user where login_name='admin';",
-   "expectedResult":[{"count(1)":"1"}]
-}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,48 +227,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -290,10 +282,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -451,7 +443,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -460,13 +452,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -476,7 +468,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -485,7 +477,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -494,7 +486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,12 +496,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -540,7 +532,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -559,7 +551,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -571,8 +563,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -580,28 +572,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="73.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="73.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="9.77734375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.95" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="19.95" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -615,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.95" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -629,85 +621,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.95" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="6" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="7" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="8" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="9" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="10" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="11" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="12" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="13" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="14" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="15" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="19.95" r="16" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="10" collapsed="1"/>
-    <col min="3" max="3" width="52" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.21875" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.109375" style="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" style="10" width="8.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="10" width="52.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="10" width="27.21875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="10" width="25.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="10" width="23.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="10" width="21.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="10" width="20.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="10" width="22.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.95" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="179.4" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -715,25 +707,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="142.19999999999999" r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -747,19 +739,19 @@
         <v>29</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row ht="28.8" r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -767,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -775,13 +767,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -790,11 +782,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="11.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="19.95" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -802,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="19.95" r="2" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="19.95" r="3" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -818,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="19.95" r="4" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +820,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/api_v5.xlsx
+++ b/target/classes/api_v5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>wenhuijuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,25 +130,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"__getUserName()","password":"__md5(123456a)"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"__getUserName()","password":"__md5(yh601933)"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"__getUserName()","password":"__md5(112222)"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{"username":"admin","password":"123456a"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"wenhuijuan","password":"yh601933"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":qqqqq","password":"112222"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>[{"expectedResult":[{"count(1)":"1"}],"no":"1","result":"success"}]</t>
-  </si>
-  <si>
-    <t>[{"expectedResult":[{"count(1)":"1"}],"no":"2","result":"success"}]</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -572,11 +575,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="13.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="73.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="9.77734375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="73.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19.95" r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,19 +658,19 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" style="10" width="8.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="10" width="52.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="10" width="27.21875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="10" width="25.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="10" width="23.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="10" width="21.109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="10" width="20.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="10" width="22.33203125" collapsed="false"/>
+    <col min="2" max="2" style="10" width="8.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="52.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="27.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="25.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="10" width="20.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="10" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19.95" r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,8 +703,8 @@
       </c>
     </row>
     <row customHeight="1" ht="179.4" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -710,24 +713,18 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row customHeight="1" ht="142.19999999999999" r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -736,24 +733,18 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="28.8" r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -762,7 +753,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -782,8 +773,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="11.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="19.95" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
